--- a/data/trans_dic/P62A$viudedad-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P62A$viudedad-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -739,47 +740,47 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,47; 16,56</t>
+          <t>5,69; 16,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,46; 25,47</t>
+          <t>4,43; 26,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,15; 27,44</t>
+          <t>4,96; 27,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,01</t>
+          <t>0,0; 11,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,69; 11,15</t>
+          <t>2,44; 10,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,35; 8,38</t>
+          <t>1,4; 8,63</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,8; 10,04</t>
+          <t>1,77; 10,67</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,83</t>
+          <t>0,0; 4,07</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,32; 13,16</t>
+          <t>5,34; 13,1</t>
         </is>
       </c>
     </row>
@@ -864,7 +865,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,1</t>
+          <t>0,0; 7,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -879,47 +880,47 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,7; 20,64</t>
+          <t>7,97; 20,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,43</t>
+          <t>0,0; 26,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,53; 30,61</t>
+          <t>5,12; 28,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,58</t>
+          <t>0,0; 17,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,63; 24,08</t>
+          <t>9,32; 23,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,33</t>
+          <t>0,0; 8,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,53; 9,28</t>
+          <t>1,59; 9,53</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,1</t>
+          <t>0,0; 6,61</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,96; 19,39</t>
+          <t>9,58; 18,84</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1010,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,63</t>
+          <t>0,0; 5,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,47 +1020,47 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,05; 29,13</t>
+          <t>16,28; 29,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,44; 34,95</t>
+          <t>3,45; 34,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,64; 36,49</t>
+          <t>13,52; 35,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,35; 26,52</t>
+          <t>3,45; 23,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,51; 16,86</t>
+          <t>4,52; 16,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 5,94</t>
+          <t>0,52; 5,67</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,03; 10,9</t>
+          <t>3,87; 10,57</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 5,51</t>
+          <t>0,57; 5,44</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,08; 23,88</t>
+          <t>13,76; 23,95</t>
         </is>
       </c>
     </row>
@@ -1154,52 +1155,52 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,77</t>
+          <t>0,0; 1,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,37; 20,12</t>
+          <t>12,45; 20,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,55; 23,85</t>
+          <t>10,21; 24,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,42; 23,9</t>
+          <t>10,04; 24,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,65; 20,55</t>
+          <t>8,3; 20,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 14,64</t>
+          <t>1,09; 14,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,33; 6,05</t>
+          <t>2,43; 6,12</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,25; 6,24</t>
+          <t>2,31; 6,35</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,62; 6,7</t>
+          <t>2,66; 6,51</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,97; 15,98</t>
+          <t>3,48; 15,91</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1290,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,16</t>
+          <t>0,0; 3,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,47 +1300,47 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,99; 22,1</t>
+          <t>11,19; 22,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>22,92; 41,14</t>
+          <t>24,16; 42,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,54; 33,4</t>
+          <t>21,53; 33,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,22; 24,31</t>
+          <t>12,78; 24,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,27; 12,22</t>
+          <t>6,66; 12,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,32; 23,81</t>
+          <t>12,8; 24,29</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12,82; 20,77</t>
+          <t>12,86; 20,69</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,82; 12,94</t>
+          <t>6,47; 12,61</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,09; 14,77</t>
+          <t>9,39; 14,98</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1425,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,43</t>
+          <t>0,0; 40,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1439,47 +1440,47 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,3; 67,09</t>
+          <t>8,39; 65,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>76,33; 85,83</t>
+          <t>76,37; 85,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>75,39; 85,53</t>
+          <t>76,0; 86,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>73,76; 84,63</t>
+          <t>74,06; 84,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,65</t>
+          <t>1,1; 4,69</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>73,81; 83,75</t>
+          <t>74,14; 83,85</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>70,48; 81,09</t>
+          <t>71,32; 81,29</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>71,0; 81,82</t>
+          <t>71,0; 82,07</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,99; 6,77</t>
+          <t>2,23; 6,78</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,83</t>
+          <t>0,0; 1,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,3</t>
+          <t>0,0; 1,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,52</t>
+          <t>0,0; 0,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,13; 18,67</t>
+          <t>13,84; 18,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>45,35; 53,77</t>
+          <t>44,97; 53,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>39,89; 47,04</t>
+          <t>39,77; 47,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>32,31; 40,01</t>
+          <t>32,11; 39,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,16; 8,77</t>
+          <t>3,23; 8,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>19,55; 24,15</t>
+          <t>19,66; 24,27</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>18,37; 22,26</t>
+          <t>18,34; 22,5</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>14,29; 18,29</t>
+          <t>14,37; 18,07</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>7,17; 13,08</t>
+          <t>7,1; 12,99</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, recibe una pensión de viudedad</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>10704</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4957</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1079</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3693</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>4956</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1079</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>14397</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2034</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2162</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2002</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5897; 17150</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1848; 10907</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1846; 10208</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5830</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1564; 6936</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1799; 11114</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1903; 11445</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6018</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>8962; 21980</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1061</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>14092</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1386</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5233</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2119</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>9606</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2447</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5233</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2119</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>23698</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5589</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2229</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1896</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>8591; 22203</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6961</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1912; 10798</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6534</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>5624; 14122</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 8792</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2107; 12645</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7635</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>16113; 31679</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2075</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>28811</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3005</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>14301</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>5203</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4757</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>3005</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>16377</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>5203</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>33567</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1830</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 10247</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1884</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>21350; 38848</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>731; 7420</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7969; 21142</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1694; 11474</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2332; 8349</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>726; 7913</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>9454; 25800</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1262; 12133</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>25146; 43765</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>47419</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>18494</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>18548</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>19878</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>15900</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>18494</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>18548</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>20813</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>63318</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1822</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2072</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4726</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>36756; 61191</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>11544; 27387</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>11635; 28042</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>11999; 30204</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>3598; 46666</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>11540; 29058</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>10734; 29575</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>13027; 31897</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>21779; 99668</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>964</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>22896</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>32522</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>62088</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>37506</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>20342</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>32522</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>63052</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>37506</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>43238</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1821</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5595</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1822</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>15792; 31821</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>24441; 42951</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>48771; 75779</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>26351; 50798</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>14744; 27134</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>23533; 44657</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>48767; 78472</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>25881; 50422</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>34056; 54295</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>965</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3682</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>223064</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>218222</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>197483</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>4580</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>224029</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>218222</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>197483</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>8263</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4160</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2029</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1752</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>911; 7089</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>208593; 234258</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>204619; 232051</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>184170; 210135</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2155; 9198</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>210138; 237650</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>203498; 231932</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>182541; 211011</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>4619; 14027</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>3039</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>127603</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>283506</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>323350</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>263268</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>58878</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>285531</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>326389</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>264203</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>186481</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 7620</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 11342</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5602</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>109315; 145811</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>259080; 307049</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>296297; 350745</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>235866; 290898</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>29897; 79405</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>257933; 318400</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>296090; 363229</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>234664; 295124</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>121671; 222827</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P62A$viudedad-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P62A$viudedad-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
